--- a/database.xlsx
+++ b/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87769e34fac74118/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manashree\Desktop\Swarnakshara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{80E66186-0224-4D50-BA6E-614A8E8712E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB3BA929-5FEB-4331-BE2A-2A586F4AA4A0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5E1340-E39E-4EB5-981D-A3BD43C96EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -671,18 +671,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.89453125" customWidth="1"/>
-    <col min="2" max="2" width="38.7890625" customWidth="1"/>
-    <col min="8" max="8" width="125.1015625" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" customWidth="1"/>
+    <col min="8" max="8" width="125.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="70.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -734,7 +734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="104.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="104.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -760,7 +760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -768,7 +768,7 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>3900</v>
+        <v>4500</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -786,7 +786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -812,7 +812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -838,7 +838,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -890,7 +890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -916,7 +916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -942,7 +942,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -968,7 +968,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -976,7 +976,7 @@
         <v>70</v>
       </c>
       <c r="C12">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D12" t="s">
         <v>71</v>
@@ -994,7 +994,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>90</v>
       </c>
